--- a/sillyGirl_menu.xlsx
+++ b/sillyGirl_menu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>傻妞菜单</t>
   </si>
@@ -28,7 +28,7 @@
     <t>账号管理</t>
   </si>
   <si>
-    <t>登录</t>
+    <t>登陆</t>
   </si>
   <si>
     <t>推送管理</t>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>登录2</t>
+  </si>
+  <si>
+    <t>口令登陆</t>
   </si>
   <si>
     <t>其他</t>
@@ -58,8 +61,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -99,54 +102,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,6 +116,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -173,8 +207,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,47 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +265,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,169 +385,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,15 +525,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +553,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -574,6 +588,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,41 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,137 +646,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +794,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1138,13 +1147,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1212,23 +1221,23 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" ht="34" customHeight="1" spans="1:8">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34" customHeight="1" spans="1:8">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1238,26 +1247,38 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11" t="s">
+    <row r="8" ht="33" customHeight="1" spans="1:8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:8">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A3:B6"/>
+    <mergeCell ref="A7:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sillyGirl_menu.xlsx
+++ b/sillyGirl_menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="6660"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>傻妞菜单</t>
+    <r>
+      <t>命令菜单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(发送以下命令进行操作)</t>
+    </r>
   </si>
   <si>
     <t>京豆命令</t>
@@ -46,13 +59,13 @@
     <t>其他</t>
   </si>
   <si>
-    <t xml:space="preserve"> 呆瓜  呆瓜须知</t>
+    <t>呆瓜  呆瓜须知</t>
   </si>
   <si>
     <t>QQ群 管理员 公众号  企业微信</t>
   </si>
   <si>
-    <t xml:space="preserve"> 省钱小技巧 安全提示  活动入口 </t>
+    <t>省钱小技巧 安全提示  活动入口</t>
   </si>
 </sst>
 </file>
@@ -60,12 +73,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,7 +122,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -117,14 +130,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,7 +145,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +175,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -170,22 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,48 +252,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,6 +286,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,25 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,145 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +560,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -560,39 +629,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,21 +647,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,16 +667,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,119 +685,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,32 +805,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -821,6 +833,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1147,13 +1163,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1210,66 +1226,67 @@
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" ht="34" customHeight="1" spans="1:8">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:8">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+    <row r="9" ht="30" customHeight="1" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="M9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/sillyGirl_menu.xlsx
+++ b/sillyGirl_menu.xlsx
@@ -66,7 +66,7 @@
     <t>其他</t>
   </si>
   <si>
-    <t>呆瓜  呆瓜须知</t>
+    <t>呆瓜  呆瓜须知     ai ?</t>
   </si>
   <si>
     <t>QQ群 管理员 公众号  企业微信</t>
@@ -81,11 +81,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,74 +115,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,19 +189,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,47 +235,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,13 +293,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,169 +371,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,6 +553,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,26 +614,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,21 +627,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,151 +645,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,7 +1159,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
